--- a/big-data/big-data-capstone/project/data/beer_n_Berliner Kindl Jubiläums Pilsener Premium.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Berliner Kindl Jubiläums Pilsener Premium.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>kingmidas(39)
+          <t>kingmidas(41)
 1.5September 12, 2022
 Taki typowy koncerniak niczym się się nie wyróżniające, jak bosman na plaży w Mielnie
 BOTTLE
@@ -692,7 +692,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tgrtnr(2,470)
+          <t>tgrtnr(2,473)
 🇩🇪Germering b München, Germany
 2.7July 26, 2022
 500 ml can. Clear light golden, small foamy head. Grassy hops, hay, metallic notes, some booze, corn. Metallic bitterness, grainy corny sweetness. Medium bodied, oily texture, lively…
@@ -759,7 +759,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>edward78(1,045)
+          <t>edward78(1,051)
 🇬🇧West Wickham, England
 3.6June 17, 2022
 Bottle online from Beers Of Europe.
@@ -826,7 +826,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MarcoDL(8,853)
+          <t>MarcoDL(8,865)
 🇳🇱Netherlands
 3.1October 17, 2021
 Draft. Aroma of bitter herbal hops, grainy malt and lager yeast. Taste has bitter herbal hops, grainy malt, lager yeast and cream grassy citrus. Good bitter pilsener.
@@ -891,7 +891,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>koorchuck(3,727)
+          <t>koorchuck(3,732)
 🇵🇱Nacpolsk, Poland
 3.2October 3, 2021
 Barwa złota, klarowne, piana obfita, trwała. Świetnie wygląda.
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>maciejgmaciej(2,853)
+          <t>maciejgmaciej(2,856)
 🇵🇱Poland
 3.6July 6, 2021
 Bardzo solidny, słdowy, czysty pils, z wyraźną goryczą. Świetny przykład stylu.
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fin(15,993)
+          <t>Fin(15,996)
 🇩🇪Attenkirchen, Germany
 2.8June 14, 2021
 Bottle picked up from Appel Getränke, Moosburg, and consumed at home Saturday 12th June 2021. Listening to Jon Hopkins - Immunity We have Xenofon, Anastasia, Vassos and…
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>imdownthepub(23,318)
+          <t>imdownthepub(23,335)
 🇬🇧Banbury, England
 2.5April 3, 2021
 Bottled, 500ml from Kay Gee's Off Licence, Didcot, Oxon. Pale yellow gold with white head. Corn and sweet malts lead the way with this beer, quite thin on the palate with a light musty note.…
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jerseyislandbeer(3,877)
+          <t>Jerseyislandbeer(3,879)
 🇯🇪Jersey
 2.7February 11, 2021
 Old rating from 02-06-16 - A 500ml bottle brought back from Berlin. Pours a pale golden colour with a white head. Aromas of corn, malt &amp; grain. Tastes of corn, grain, grass, malt &amp; midly of…
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Grisza77(1,938)
+          <t>Grisza77(1,939)
 🇵🇱Poznań, Poland
 2.8January 3, 2021
 Jasnozłote, klarowne piwo o całkiem obfitej pianie, która dość szybko redukuje się do zera. Aromat i smak przyjemny, ale praktycznie wyłącznie słodowy. Goryczka niska w stronę…
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IPALegion55(1,294)
+          <t>IPALegion55(1,297)
 🇵🇱Szczecin, Poland
 2.8January 3, 2021
 Złote, przjerzyste, obfita piana.
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TheWhaleNorman(517)
+          <t>TheWhaleNorman(519)
 🇷🇺Moscow, Russia
 2.7September 29, 2020
 Grainy aroma with some buckwheat notes
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>caketm(4,444)
+          <t>caketm(4,451)
 🇵🇱Czestochowa, Poland
 3.1August 30, 2020
 Butelka 0,5 litra, zakupiona przez kumpla w Berlinie. Kolor złoty, idealnie klarowny. W smaku lekkie fasolowe klimaty. Goryczka średnia.
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Camons(19,560)
+          <t>Camons(19,602)
 🇩🇰Hasselager, Denmark
 2.9July 29, 2020
 Draught @ schnitzelei mitte, Berlin. Pours very pale yellow with a white head. Aroma malt, light grain, Bread, light hay-ish hops. Flavor is light sweet, very lightly bitter, malt, grain, hay. Thin to…
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bdleedahl(5,391)
+          <t>bdleedahl(5,394)
 🇳🇱Netherlands
 3.1May 11, 2020
 More of a standard american lager. Not much for hops, and even tastes like corn/rice beer. Sommel Dresden
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DraftDodger(6,278)
+          <t>DraftDodger(6,285)
 🇩🇰Copenhagen, Denmark
 2.6June 9, 2020
 Copenhagen 28/9 2019. 50 cl can from Meny, Østerfælled Torv, Kbh. Ø. Very white can with little insignia of a kid (of all persons) peeking up from a Beer mug. Not very politically…
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sparta(3,330)
+          <t>sparta(3,331)
 🇪🇪Pärnu, Estonia
 2.8August 8, 2019
 Õlle on selline jook, et iga uus kord kui klaasi või pudeli suule tõstad, siis leiad midagi uut, sõltuvalt tuhandest-miljonist pisiasjast, mis hetke olukorda mõjutavad. Seega piirdun iga õl…
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>alex_leit(14,173)
+          <t>alex_leit(14,174)
 🇧🇾Minsk, Belarus
 2.8July 9, 2019
 Bottle 500 ml. Clear golden color, good snow-white foam. Aroma: German hops, with a slight spiciness, flowers and herbs, pils malt. Taste: herbal hops, slightly woody, light malt,…
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>dekris(1,357)
+          <t>dekris(1,358)
 🇵🇱Olkusz, Poland
 2.0March 5, 2020
 Uzupełnienie ocen piwnych bez opisu z uwagi na przeniesienie z papierowych zapisków.
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Goldbarren(4,523)
+          <t>Goldbarren(4,527)
 🇦🇹Vienna, Austria
 2.3November 20, 2018
 Ein typisches Industriebier ohne besondere Aromen. Aber sogar als Schüttbier schmeckt es mir nicht, da es einen unangenehmen süßlichen und metallischen Geschmack anbei…
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>mutz(1,713)
+          <t>mutz(1,714)
 🇳🇱Netherlands
 2.7October 7, 2018
 Fles op U Bahn Station gekocht als Jubiläums Pilsener , Berliner Stadtteil Wedding edition. Gedronken uit fles dus van het uiterlijk en geur geen idee. Smaakt bitterzoet, beetje flauw.
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zlotta(8,028)
+          <t>Zlotta(8,034)
 🇩🇪Hagen, Germany
 2.4August 4, 2018
 Sampled from 0.5 l can from local 'LIDL', best before June 2019. Clear, golden with a medium large, frothy, slowly diminishing, white head. Sweetish, slightly grassy-spicy aroma of grains…
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mR_fr0g(25,830)
+          <t>mR_fr0g(25,835)
 🇬🇧England
 3.1May 22, 2018
 Bottle shared at Columbus tasting 08/05/2018. Many thnaks! A Clear pale yellow coloured pour with a loose white head. Aroima is raw cereal grains, straw, grassy hop, light skunk,…
@@ -4334,7 +4334,7 @@
           <t>Scopey(22,709)
 🇬🇧Oldmeldrum, Scotland
 2.7May 9, 2018
-Bottle thanks to Fergus. It pours yellow - gold with a small white head. The aroma is toasty grain, cereal, light spice, grainy, paper, grass and metal. The taste is crisp, dry, bitter - bit…
+Bottle thanks to Fergus. It pours yellow - gold with a small white head. The aroma is toasty grain, cereal, light spice, grainy, paper, grass and metal. The taste is crisp, dry, bitter - bit sweet…
 Show more
 Aroma
 5
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Leighton(31,545)
+          <t>Leighton(31,549)
 🇬🇧London, England
 3.5May 9, 2018
 Bottle shared in Canary Wharf - cheers to Fergus. Pours totally clear yellow-gold with a small, creamy white head. The nose holds biscuits, straw, cereal. Light-medium sweet flavour with…
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>franclh(4,817)
+          <t>franclh(4,821)
 🇳🇱Dedemsvaart, Netherlands
 3.5May 6, 2018
 Fles 50cl thuis. Grassig, bitter, licht hoppig, zoetje
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cunningham(12,661)
+          <t>Cunningham(12,665)
 🇳🇴Halden, Norway
 2.7March 16, 2018
 Decent enough pilsner. Plain and nothing wrong with it. Typical pilsner aroma and flavor. Ok body and a fine carbonation level. Fine balanced bitterness and sweetness. Thirst quencher.…
@@ -5387,7 +5387,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sharkydodson(5,350)
+          <t>sharkydodson(5,359)
 🇷🇺St. Petersburg, Russia
 3.0July 21, 2017
 the aroma is malty and herbal with shades of candy, straw and honey... the taste is malty with notes of grain, grasses and some spices... very rough hoppy bitterness... dry and very…
@@ -5778,7 +5778,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hermod(14,397)
+          <t>Hermod(14,429)
 🇫🇮Vantaa, Finland
 3.0June 6, 2017
 50cl bottle. From Alko. 
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>nathanvc(4,818)
+          <t>nathanvc(4,827)
 🇧🇪Gent, Belgium
 2.4May 27, 2017
 On tap at Alt-Berliner Wirtshaus, Berlin. Pours very clear light yellow with a minimal white head. The aroma has bread, hops, yeast and malt. Light bitter onset, then light sweet, finishing…
@@ -6433,7 +6433,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TET(5,408)
+          <t>TET(5,411)
 🇫🇮Kaarina, Finland
 2.4March 9, 2017
 A light yellow beer, a head is white and big. Aroma has maltyness and sweetness, only hint of grass, simple. Taste is even simpler, maltyness, mild bitterness. Almost medium…
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>mile(4,973)
+          <t>mile(4,976)
 🇫🇮Helsinki, Finland
 1.8December 6, 2016
 Can. Light golden, small to average and fully diminishing head. Light to moderate, malty – lightly grainy and lightly sweetish aroma, light cardboard and faint metal. Body is light, malty –…
@@ -6695,7 +6695,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Vignale(6,814)
+          <t>Vignale(6,816)
 🇸🇪Malmö, Sweden
 3.1November 26, 2016
 Burk, brudöl. Trevlig pilsner med mjuka maltiga och ganska söta smaker. En hel del säd i smakbilden, lite matig och en lätt beska. Dugligt vardagsöl.
@@ -6959,7 +6959,7 @@
           <t>shoestring(728)
 🇬🇧larkhall, Scotland
 3.4September 13, 2016
-Daughter’s kindly brought me a couple of cans back from Berlin. Looks lively with fluffy head that dissipates but laced. Bit skunk on the nose but not that prevailent in the mouth.…
+Daughter’s kindly brought me a couple of cans back from Berlin. Looks lively with fluffy head that dissipates but laced. Bit skunk on the nose but not that prevailent in the mouth. Better…
 Show more
 Aroma
 6
@@ -7217,7 +7217,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FatPhil(23,239)
+          <t>FatPhil(23,248)
 🇪🇪Tallinn, Estonia
 1.4July 23, 2016
 500ml bottle (Random petrol station, Berlin)…
@@ -7544,7 +7544,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>rozsoma(3,265)
+          <t>rozsoma(3,272)
 🇭🇺Gyõr, Hungary
 2.9June 18, 2016
 Bottled from Penny Markt (CEWE Group), Berlin 2016. Jubileum, de minek? S kinek?
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Marduk(17,800)
+          <t>Marduk(17,850)
 🇪🇪Reval, Estonia
 1.9June 2, 2016
 330ml bottle (random petrol station, Berlin). Straight from the bottle. Malty, hop extract in aroma. Metallic, malty, hop extract in taste. Metallic and sweet in aftertaste. Watery palate. Some…
@@ -7809,7 +7809,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kavu(9,378)
+          <t>Kavu(9,379)
 🇫🇮Helsinki, Finland
 2.5May 29, 2016
 0,5l bottle from Spätkauf near Nauener Platz. Pours pale golden with a medium soapy head. Aroma is grainy malts. Flavor is grainy malts with some German hops. Decent.
@@ -7940,7 +7940,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>alteregoo(4,449)
+          <t>alteregoo(4,453)
 🇵🇱Kalisz, Poland
 2.1March 31, 2016
 Piana biała, obfita, szybko opadająca do chmurki. Barwa słomkowo złota, klarowna, mocno nagazowana CO2. Czysty pilsowy aromat, mało intensywny - odrobina ziołowej…
@@ -8137,7 +8137,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>allmyvinyl(17,003)
+          <t>allmyvinyl(17,010)
 🇬🇧Edinburgh, Scotland
 3.0January 15, 2016
 330ml bottle from Beers of Europe. Pours clear pale gold with a thin white head. Aromas of corn, grains. Taste is light astringent, faint tickle of herbs. Clean finish.
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>labeerinthum(6,515)
+          <t>labeerinthum(6,520)
 🇮🇹Milano, Italy
 2.5December 19, 2015
 Bottiglia. L’intensità olfattiva è flebile e la persistenza olfattiva è sufficiente. Il cappello di schiuma ha scarsa tenuta, con bollicine medie. La frizzantezza del liquido è dovuta a bollicin…
@@ -8399,7 +8399,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>biir(3,312)
+          <t>biir(3,318)
 🇩🇪Hamburg, Germany
 3.2November 28, 2015
 Ach, wat jibbet besseres als ein eiskaltes Jubi ausm Späti? Erfrischend würzig, bitter im Abgang. Is aber wie Roulette, man kann jederzeit auch eins mit lauter Fehlgeschmäckern…
@@ -9251,7 +9251,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jamaty(2,669)
+          <t>jamaty(2,675)
 🇪🇸Madrid, Spain
 2.8June 9, 2015
 Dorada clara y limpia. Un dedo de espuma poco consistente y duradera. Aroma herbal. Poco cuerpo y carbonatación. Muy bebible. Sabor cereal, predominando maiz y final seco y…
@@ -9382,7 +9382,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sigmund(12,249)
+          <t>Sigmund(12,264)
 🇳🇴Tau, Norway
 3.0May 26, 2015
 330 ml bottle, from CITTI-Markt Flensburg. BB date 02.14. ABV is 5.1%. Clear golden colour, large to moderate white head. Fairly fresh pilsener aroma, despite its age. Grassy and herbal…
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Gurthnar(10,577)
+          <t>Gurthnar(10,580)
 🇸🇰Bratislava, Slovakia
 1.5January 6, 2015
 Can from Seoul Plaza. Aroma soapy, adjuncts. Clear yellow colour, quickly disappearing head. Taste strong pasteurisation, washing cloth, dirty, metallic. Really bad. Hardly drinkable.
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>YantarCoast(3,965)
+          <t>YantarCoast(3,969)
 🇷🇺Moscow, Russia
 2.8October 4, 2014
 500ml bottle from a Moscow supermarket. Pale yellow with a white head that disappears pretty fast. Grassy aroma. Slight bitter aftertaste. Average pils.
@@ -10430,7 +10430,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>gyllenbock(15,253)
+          <t>gyllenbock(15,275)
 🇸🇪Stockholm, Sweden
 2.8September 17, 2014
 Bottle from Galeria Kaufhof Berlin, September 2014.…
@@ -10626,7 +10626,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Beerhunter111(38,160)
+          <t>Beerhunter111(38,171)
 🇩🇪Beerland, Germany
 3.0August 13, 2014
 Goldgelbes Bier mit ordentlicher Schaumkrone. Geruch hopfig malzig, grasig, leicht metallisch. Geschmack sehr hopfig bitter, grasig, etwas metallisch.
@@ -11019,7 +11019,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Moravius(3,414)
+          <t>Moravius(3,419)
 🇩🇪Berlin, Germany
 2.2March 3, 2018
 "Berliner Kindl Jubiläums Pilsener Premium", Flasche (50 cl) von Edeka. - Helles Goldgelb, klar. - Süßlich-käsiger Geruch wie von einem typischen Billigbier. - Antrunk süßlich mit einem…
@@ -11477,7 +11477,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Rasmus40(31,650)
+          <t>Rasmus40(31,652)
 🇩🇰Beder, Aarhus, Denmark
 2.6February 16, 2014
 Bottle courtesy of HenrikSoegaard. Clear yellow with a white head. Aroma is sweet, malty, grainy and light hoppy - straw. Flavor is medium sweet and moderate bitter. Dry and light…
@@ -11872,7 +11872,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>visionthing(7,508)
+          <t>visionthing(7,511)
 🇪🇪Tallinn, Estonia
 2.6October 12, 2013
 33cl bottle at some pizza place in Friedrichshain. Moderate malty aroma with hints of grass and spices. Lightly sweet with a nice bitterness. Nice and clean pilsner. Goes well with pizza.
@@ -12134,7 +12134,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Holmen1(11,787)
+          <t>Holmen1(11,792)
 🇳🇴Stavanger, Norway
 1.8July 23, 2013
 Flaske fra Kihoskh, på hyttbalkongen en stekende varm julidag: et berømt merke, jhvorfor aner jeg ikke. Tynne saker med metallisk bitterhet. Heldigvis kortvarig ettersmak slik at den…
@@ -12397,7 +12397,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>jesperhammer(6,993)
+          <t>jesperhammer(7,001)
 🇩🇰Copenhagen, Denmark
 2.0April 8, 2013
 05-APR-2013, can @Tegel airport, Berlin.
@@ -12464,7 +12464,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BeerViking(8,422)
+          <t>BeerViking(8,425)
 🇬🇧Brentford, England
 2.5March 20, 2013
 Pale gold with a big white head and aromas of lemon and corn. Crisp and bitter hoppy to start with, thin bodied with a lasting sharp bitter edge but not a lot else.
@@ -12661,7 +12661,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Kita(4,006)
+          <t>Kita(4,009)
 🇸🇮Koper, Slovenia
 3.0December 26, 2012
 Bottled, 0.50l. Clear golden color with large frothy white head and lively bubbles. Aroma of grassy hops, hay, grains, citrus and with light skunky note. Taste is nothing more than classic…
@@ -13117,7 +13117,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AndySnow(13,883)
+          <t>AndySnow(13,897)
 🇸🇪Huddinge, Sweden
 2.6October 12, 2012
 Draught. Clear yellow colour with a white head. Light malty aroma. Light body, could have used a bit more carbonation but that might be due to the way it was poured. Typical pilsener…
@@ -13837,7 +13837,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BlackHaddock(13,417)
+          <t>BlackHaddock(13,426)
 🇬🇧The County Time Forgot, England
 2.7May 7, 2012
 From a 2006 BA review: 0.5 litre brown bottle poured into my old Berliner Kindl pint straight sleeve glass. The glass left Berlin in early 1990, just after the wall came down in Nov 89. This…
@@ -14100,7 +14100,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Grzesiek79(6,706)
+          <t>Grzesiek79(6,708)
 🇵🇱Radom, Poland
 4.2February 23, 2012
 grass, cereal, cough drop, citrus, smoke, amber, clear, white foam, rocky head, medium sweetness, very bitter, medium body, creamy, astringent, bitter, long finish, flat,
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Christian(16,455)
+          <t>Christian(16,456)
 🇩🇰Odense, Denmark
 2.9December 23, 2011
 Golden with a small white head. Weak grainy malt aroma with herbal hops and DMS. Dry pilsner malt flavour with herbal hops and a nice bitter finish
@@ -15347,7 +15347,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Svesse(12,387)
+          <t>Svesse(12,391)
 🇸🇪Hässelby, Sweden
 2.6September 4, 2010
 (Draught at Berliner Republik, Berlin, 23 July 2010) Golden yellow colour with frothy, white head. Malty nose with notes of hay, grass and hints of tropical fruit. Malty, slightly fruity taste…
@@ -15610,7 +15610,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>KyotoLefty(14,482)
+          <t>KyotoLefty(14,484)
 🇯🇵Kyoto, Japan
 3.1May 1, 2010
 Bottle thanks to Ben at McLoughlin’s. 
@@ -15874,7 +15874,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Marko(13,980)
+          <t>Marko(14,020)
 🇨🇿Prague, Czech Republic
 2.2March 11, 2010
 Bottle from the Kaisers near Brauhaus Mitte, thanks Žarko for sharing! Poured a yellow-gold pale body. Eggy, vegetabley nose. Dry grainy, woody taste, slightly eggy. Not all that impressive,…
@@ -16006,7 +16006,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Rune(22,244)
+          <t>Rune(22,245)
 🇳🇴Tromso, Norway
 3.0November 26, 2009
 300ml vom fass at Berliner Fernsehturm Restaurant. Just the right place and the right beer to start a few days visit to Berlin. Clear, light straw coloured body with a tiny white head leaving…
@@ -16202,7 +16202,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>chrisv10(23,975)
+          <t>chrisv10(23,978)
 🇩🇰Denmark
 1.5August 5, 2009
 50 cl draft. Light yellow body with medium white head. Flavour was malty and slightly bitter.
@@ -16267,7 +16267,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>drpimento(6,473)
+          <t>drpimento(6,476)
 🇺🇸La Crosse, United States
 3.5June 18, 2009
 got this bottle around the corner from my Hotel Artist Riverside, Mitte, Berlin.in outdoor cooler at a kiosk on the street. Poured with a big white foamy fluffy head and lots of lace. Color is a…
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>johndoughty(7,580)
+          <t>johndoughty(7,587)
 🇬🇧cheslyn hay, England
 3.8April 12, 2009
 Bottle. Golden with a medium head. More malty than I had expected.Pleasant and refreshing.
@@ -16464,7 +16464,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>mjs(10,643)
+          <t>mjs(10,644)
 🇫🇮Helsinki, Finland
 2.7February 12, 2009
 (Draught on 2009-02-07) Clear and golden. Medium sized white head. Mild grassy aroma. Quite light and dry palate with high carbonation. Bitterness, grass, malts and hint of sweetness in…
@@ -16530,7 +16530,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>fonefan(70,891)
+          <t>fonefan(70,918)
 🇩🇰VestJylland, Denmark
 2.7February 2, 2009
 Bottle 50cl. @ home.
@@ -16793,7 +16793,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>omhper(35,539)
+          <t>omhper(35,610)
 🇸🇪Tyresö, Sweden
 2.0December 1, 2008
 &lt;i&gt;Draught at a restuarant in Lehnin.&lt;/i&gt; Clear golden, airy head. Dusty hoppy nose. Dryish, clean and cardboardy with notes of dust, yeast and vegetables. Industrial and lifeless…
@@ -17189,7 +17189,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ekstedt(8,120)
+          <t>ekstedt(8,121)
 🇸🇪Göteborg, Sweden
 2.2June 10, 2008
 [i]Bottle (50 cl) from a local beer store in Berlin[/i]. Pale golden with small white head. Grainy malt aroma with boiled vegetables, some grassy hops. Spritzy mouthfeel, dry with…
@@ -17390,7 +17390,7 @@
           <t>larsga(7,693)
 🇳🇴Oslo, Norway
 3.0May 14, 2008
-Biggish coarseish white lasting head rises out of the glass. Pale yellow body with light carbonation. Very light straw aroma with hints of malts. Light sweetish mealy taste with straw and…
+Biggish coarseish white lasting head rises out of the glass. Pale yellow body with light carbonation. Very light straw aroma with hints of malts. Light sweetish mealy taste with straw and malt…
 Show more
 Aroma
 5
@@ -18239,7 +18239,7 @@
           <t>sayravai(4,710)
 🇫🇮Helsinki, Finland
 2.3July 5, 2006
-(Canned, BBE 06/2007) Pale golden color with a medium, fluffy head and some lace. Mild, grassy-corny aroma with honey hints reminds me of some Swedish 3.5% pilseners. Very clean, light…
+(Canned, BBE 06/2007) Pale golden color with a medium, fluffy head and some lace. Mild, grassy-corny aroma with honey hints reminds me of some Swedish 3.5% pilseners. Very clean, lightl…
 Show more
 Aroma
 4
@@ -18499,7 +18499,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>HenrikSoegaard(19,302)
+          <t>HenrikSoegaard(19,303)
 🇩🇰Randers, Denmark
 2.3April 2, 2006
 Bottle. Creamy white good mostly lasting heaqd. Yellow colour. Grassy aroma, and nice flavor. Average finish. Oily palate.
@@ -18694,7 +18694,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DJMonarch(13,085)
+          <t>DJMonarch(13,114)
 🇬🇧Northwich, England
 2.6March 10, 2006
 Can at Ostbahnhof, Berlin 11/07/2004
@@ -18761,7 +18761,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MiP(19,171)
+          <t>MiP(19,172)
 🇩🇰Sønderborg, Denmark
 2.0February 27, 2006
 Draught. Bready aroma. Golden colour with a stable head. Citric flavour, a little watery, but not too bad. Bready aftertaste and high carbonation.
@@ -19217,10 +19217,10 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>pivnizub(12,829)
+          <t>pivnizub(12,834)
 🇩🇪Bochum, Germany
 2.2July 14, 2005
-Bottle: Very light golden colour, firm but quickly vanishing white head; grassy hoppiness, traces of musty, soapy maltiness in the aroma; the slightly sweet start leads quickly to a light bitter…
+Bottle: Very light golden colour, firm but quickly vanishing white head; grassy hoppiness, traces of musty, soapy maltiness in the aroma; the slightly sweet start leads quickly to a light bitter en…
 Show more
 Aroma
 4
@@ -19414,7 +19414,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ogivlado(14,037)
+          <t>ogivlado(14,052)
 🇭🇷Zagreb, Croatia
 2.7January 17, 2005
 Canned(500ml). -just average german pils, light malt taste, slight hoppy, thin with a watery finish
@@ -19544,7 +19544,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>bierkoning(19,182)
+          <t>bierkoning(19,183)
 🇳🇱La Tropica/Doarp, Netherlands
 3.0October 27, 2004
 Malty, somewhat flowery aroma. Slight hoppy, flowery flavor. Medium bodied, with sweetish malty notes. Nice tasty pilsener, a bit above average.
@@ -19873,7 +19873,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ungstrup(48,900)
+          <t>Ungstrup(48,914)
 🇩🇰Citizen of the universe, Denmark
 2.6July 21, 2003
 Nice malty aroma - a slight note of straw. The color is a clear golden with a fine but collapsing head. The flavor is malty, slightly sweet and notes of straw. It has no bitterness to…
